--- a/data/trans_camb/IP16A10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,12 +795,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 5,47</t>
+          <t>-10,38; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 0,0</t>
+          <t>-14,86; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,55</t>
+          <t>-5,25; 2,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-8,51; 0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,61</t>
+          <t>-2,3; 4,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,17</t>
+          <t>-3,26; 2,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -0,96</t>
+          <t>-10,75; -1,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; -1,61</t>
+          <t>-10,15; -1,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,86</t>
+          <t>-4,92; 0,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -0,2</t>
+          <t>-5,3; -0,38</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-95,01; 2,99</t>
+          <t>-100,0; -4,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -18,86</t>
+          <t>-100,0; 2,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,41; 53,12</t>
+          <t>-80,72; 51,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-93,35; 11,07</t>
+          <t>-92,42; 5,54</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 0,0</t>
+          <t>-10,86; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 3,58</t>
+          <t>-6,05; 3,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 4,76</t>
+          <t>-15,48; 3,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 0,95</t>
+          <t>-17,29; 0,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,67</t>
+          <t>-7,8; 1,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 1,57</t>
+          <t>-8,47; 1,29</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,5</t>
+          <t>-2,48; 2,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,85</t>
+          <t>-3,25; 1,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -0,49</t>
+          <t>-7,51; -0,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,64</t>
+          <t>-7,91; -1,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,44</t>
+          <t>-3,95; 0,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,39</t>
+          <t>-4,4; -0,67</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 487,29</t>
+          <t>-76,02; 528,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 498,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-91,3; 9,36</t>
+          <t>-91,74; -0,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-98,25; -36,34</t>
+          <t>-96,02; -25,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 31,48</t>
+          <t>-78,17; 22,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-88,56; -6,03</t>
+          <t>-88,71; -15,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,52</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 5,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 2,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 0,0</t>
         </is>
       </c>
     </row>
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-2,61</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 5,41</t>
+          <t>-10,45; -1,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 0,0</t>
+          <t>-10,19; -1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 2,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 2,55</t>
+          <t>-4,85; 0,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 0,0</t>
+          <t>-5,51; -0,32</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,2%</t>
+          <t>-76,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-82,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,33%</t>
+          <t>-43,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-67,41%</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -13,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 23,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,2; 41,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,15; 1,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,48</t>
+          <t>-15,19; 3,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,59</t>
+          <t>-18,17; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -1,03</t>
+          <t>-9,74; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,15; -1,69</t>
+          <t>-5,95; 3,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,62</t>
+          <t>-7,99; 1,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -0,38</t>
+          <t>-7,34; 1,4</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>-52,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,78%</t>
+          <t>-78,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-76,79%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-82,6%</t>
+          <t>-9,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-43,76%</t>
+          <t>-57,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-67,41%</t>
+          <t>-59,1%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,29 +1037,29 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,72; 51,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-92,42; 5,54</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-2,31</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-2,4</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 0,0</t>
+          <t>-7,41; -0,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 3,6</t>
+          <t>-8,43; -1,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 3,72</t>
+          <t>-2,19; 2,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 0,83</t>
+          <t>-3,33; 1,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,7</t>
+          <t>-3,88; 0,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 1,29</t>
+          <t>-4,52; -0,55</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-67,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-9,44%</t>
+          <t>-80,02%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-52,96%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-78,82%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-57,02%</t>
+          <t>-44,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,1%</t>
+          <t>-65,27%</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,2; 0,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,53; -26,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,55; 447,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,187 +1203,30 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,32; 15,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,46; -4,91</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-4,34</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-2,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 2,71</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 1,43</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-7,51; -0,46</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-7,91; -1,55</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 0,22</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; -0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>13,61%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-26,32%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-67,5%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-80,02%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-44,64%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-65,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-76,02; 528,15</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-91,74; -0,65</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-96,02; -25,94</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-78,17; 22,86</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-88,71; -15,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
